--- a/5. bug report Mobile App/BugReport.xlsx
+++ b/5. bug report Mobile App/BugReport.xlsx
@@ -329,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -352,6 +352,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -401,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,11 +443,86 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -653,8 +735,8 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -826,11 +908,11 @@
       <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>38</v>
+      <c r="E5" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>39</v>
@@ -898,8 +980,8 @@
       <c r="C7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
+      <c r="D7" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>38</v>
@@ -12913,6 +12995,25 @@
       <c r="K1000" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",D1)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="J3" r:id="rId2"/>
@@ -12925,5 +13026,6 @@
     <hyperlink ref="J10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>